--- a/Data/StageSequence.xlsx
+++ b/Data/StageSequence.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gb\repos\black-android\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B12BA8C-0C16-4933-A121-A2E8963B132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21075" xr2:uid="{DBF5C1B9-6F6E-44EA-A356-53DB08A15C4F}"/>
+    <workbookView windowWidth="21000" windowHeight="17080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,320 +27,344 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="176">
   <si>
     <t>[StageSequenceData]</t>
   </si>
   <si>
+    <t>stageId</t>
+  </si>
+  <si>
     <t>stageName</t>
   </si>
   <si>
-    <t>stageId</t>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>starCount</t>
+  </si>
+  <si>
+    <t>remainTime</t>
+  </si>
+  <si>
+    <t>skipLock</t>
   </si>
   <si>
     <t>001</t>
   </si>
   <si>
+    <t>皮特·蒙德里安</t>
+  </si>
+  <si>
+    <t>灰色和红色组合</t>
+  </si>
+  <si>
+    <t>灰色和红色的组合也给人一种完整的感觉</t>
+  </si>
+  <si>
     <t>002</t>
   </si>
   <si>
+    <t>菱形组成</t>
+  </si>
+  <si>
+    <t>生命其实不就是一颗有横有竖的钻石吗？</t>
+  </si>
+  <si>
     <t>003</t>
   </si>
   <si>
+    <t>피트 몬드리안</t>
+  </si>
+  <si>
+    <t>구성</t>
+  </si>
+  <si>
+    <t>이 화면의 구성안에는 세상의 모든 것이 담겨있다.</t>
+  </si>
+  <si>
     <t>004</t>
   </si>
   <si>
+    <t>에두아르 마네</t>
+  </si>
+  <si>
+    <t>바다 전망, 고요한 날씨</t>
+  </si>
+  <si>
+    <t>그림은 고요할지언정 터치에는 힘이 있다.</t>
+  </si>
+  <si>
     <t>005</t>
   </si>
   <si>
+    <t>에드바르 뭉크</t>
+  </si>
+  <si>
+    <t>해변의 두 여인</t>
+  </si>
+  <si>
+    <t>흑과 백이 대지처럼 나누어진 두 여인. 무슨 사연일까</t>
+  </si>
+  <si>
     <t>006</t>
   </si>
   <si>
+    <t>폴 세뤼지에</t>
+  </si>
+  <si>
+    <t>르 폴드 그랑 사블 해변</t>
+  </si>
+  <si>
+    <t>황금빛 해변, 고단함과 고요함이 느껴진다.</t>
+  </si>
+  <si>
     <t>007</t>
   </si>
   <si>
+    <t>폴 고갱</t>
+  </si>
+  <si>
+    <t>화가 어머니의 초상, 이브</t>
+  </si>
+  <si>
+    <t>고갱이 있기까지는 위대한 화가의 어머니가 있었다.</t>
+  </si>
+  <si>
     <t>008</t>
   </si>
   <si>
+    <t>윈슬로 호머</t>
+  </si>
+  <si>
+    <t>노스우즈 클럽</t>
+  </si>
+  <si>
+    <t>푸른 숲과 아름다운 동물, 총소리</t>
+  </si>
+  <si>
     <t>009</t>
   </si>
   <si>
+    <t>목욕하는 소년들</t>
+  </si>
+  <si>
+    <t>자유로운 물속의 소년들. 물에 흩어질 것 같다.</t>
+  </si>
+  <si>
     <t>010</t>
   </si>
   <si>
+    <t>요하네스 페르메이르</t>
+  </si>
+  <si>
+    <t>진주 귀고리를 한 소녀</t>
+  </si>
+  <si>
+    <t>진주 귀걸이는 정말로 소녀의 귀에 닿은 걸까?</t>
+  </si>
+  <si>
     <t>011</t>
   </si>
   <si>
+    <t>피리부는 소년</t>
+  </si>
+  <si>
+    <t>발그레한 볼의 소년에게 제일 먼저 시선이 간다.</t>
+  </si>
+  <si>
     <t>012</t>
   </si>
   <si>
+    <t>앙리 드 툴루즈 로트렉</t>
+  </si>
+  <si>
+    <t>물랑루즈의 영국인</t>
+  </si>
+  <si>
+    <t>이 작가는 포스터를 작품의 경지로 끌어올렸다.</t>
+  </si>
+  <si>
     <t>013</t>
   </si>
   <si>
+    <t>패턴</t>
+  </si>
+  <si>
+    <t>1800년대의 직물의 패턴</t>
+  </si>
+  <si>
     <t>014</t>
   </si>
   <si>
+    <t>아리스티드 브뤼앙</t>
+  </si>
+  <si>
+    <t>편견 없이 보고, 편견 없이 그린다.</t>
+  </si>
+  <si>
     <t>015</t>
   </si>
   <si>
+    <t>파편</t>
+  </si>
+  <si>
+    <t>1800년대의 무늬</t>
+  </si>
+  <si>
     <t>016</t>
   </si>
   <si>
+    <t>빈센트 반 고흐</t>
+  </si>
+  <si>
+    <t>해바라기</t>
+  </si>
+  <si>
+    <t>해바라기를 그릴 때의 고흐는 행복했다.</t>
+  </si>
+  <si>
     <t>017</t>
   </si>
   <si>
+    <t>메리 카사트</t>
+  </si>
+  <si>
+    <t>모성애</t>
+  </si>
+  <si>
+    <t>섬세한 선과 아름다운 표현, 판화풍의 그림이다</t>
+  </si>
+  <si>
     <t>018</t>
   </si>
   <si>
+    <t>귀에 붕대를 감은 자화상</t>
+  </si>
+  <si>
+    <t>붕대를 품은 판다, 아니 판다를 품은 자화상.</t>
+  </si>
+  <si>
     <t>019</t>
   </si>
   <si>
+    <t>목욕하는 여인</t>
+  </si>
+  <si>
+    <t>여인의 아름다운 선에 리듬감이 느껴진다.</t>
+  </si>
+  <si>
     <t>020</t>
   </si>
   <si>
+    <t>언제 결혼하니</t>
+  </si>
+  <si>
+    <t>언제 결혼하니, 그런 걸 왜 묻니</t>
+  </si>
+  <si>
     <t>021</t>
   </si>
   <si>
+    <t>자화상</t>
+  </si>
+  <si>
+    <t>자화상과 배경의 물결에는 그의 불안이 담겨있다.</t>
+  </si>
+  <si>
     <t>022</t>
   </si>
   <si>
+    <t>가셰 박사의 초상</t>
+  </si>
+  <si>
+    <t>작품을 완성한 달은, 고흐 생의 마지막 달이었다.</t>
+  </si>
+  <si>
     <t>023</t>
   </si>
   <si>
+    <t>가쓰시카 호쿠사이</t>
+  </si>
+  <si>
+    <t>가나가와 해변의 높은 파도아래</t>
+  </si>
+  <si>
+    <t>세상에서 가장 유명한 파도 그림, 파도가 역동적이다.</t>
+  </si>
+  <si>
     <t>024</t>
   </si>
   <si>
+    <t>꽃을 든 여인</t>
+  </si>
+  <si>
+    <t>선명하고 아름다운 색감의 이국적인 여인</t>
+  </si>
+  <si>
     <t>025</t>
   </si>
   <si>
+    <t>뱃놀이</t>
+  </si>
+  <si>
+    <t>물이 잔잔한 날 친구와 여유를 즐기면 좋겠어</t>
+  </si>
+  <si>
     <t>026</t>
   </si>
   <si>
+    <t>폴 세잔</t>
+  </si>
+  <si>
+    <t>사과 바구니가 있는 정물</t>
+  </si>
+  <si>
+    <t>각각 배치되어 있는 사과와 정물에서 고집이 느껴진다</t>
+  </si>
+  <si>
     <t>027</t>
   </si>
   <si>
+    <t>마틴 존슨 헤데</t>
+  </si>
+  <si>
+    <t>블루 벨벳천과 목련</t>
+  </si>
+  <si>
+    <t>커다랗고 탐스러운 자연물을 그리는 건 즐겁다</t>
+  </si>
+  <si>
     <t>028</t>
   </si>
   <si>
+    <t>민화 호작도, 까치와 호랑이</t>
+  </si>
+  <si>
+    <t>신년을 맞이하여 좋은 소식을 전한다.</t>
+  </si>
+  <si>
     <t>029</t>
   </si>
   <si>
+    <t>지오반니 바티스타 살비</t>
+  </si>
+  <si>
+    <t>기도하는 성모마리아</t>
+  </si>
+  <si>
+    <t>가끔 기도하고 싶을 땐 그냥 손을 모아본다</t>
+  </si>
+  <si>
     <t>030</t>
   </si>
   <si>
-    <t>피트 몬드리안</t>
-  </si>
-  <si>
-    <t>회색과 빨간색 구성</t>
-  </si>
-  <si>
-    <t>회색과 빨간색의 구성에서도 완성됨이 느껴진다.</t>
-  </si>
-  <si>
-    <t>마름모꼴 구성</t>
-  </si>
-  <si>
-    <t>인생은 사실 수평과 수직이 안의 마름모꼴이 아닐까</t>
-  </si>
-  <si>
-    <t>구성</t>
-  </si>
-  <si>
-    <t>이 화면의 구성안에는 세상의 모든 것이 담겨있다.</t>
-  </si>
-  <si>
-    <t>에두아르 마네</t>
-  </si>
-  <si>
-    <t>바다 전망, 고요한 날씨</t>
-  </si>
-  <si>
-    <t>에드바르 뭉크</t>
-  </si>
-  <si>
-    <t>해변의 두 여인</t>
-  </si>
-  <si>
-    <t>흑과 백이 대지처럼 나누어진 두 여인. 무슨 사연일까</t>
-  </si>
-  <si>
-    <t>폴 세뤼지에</t>
-  </si>
-  <si>
-    <t>르 폴드 그랑 사블 해변</t>
-  </si>
-  <si>
-    <t>황금빛 해변, 고단함과 고요함이 느껴진다.</t>
-  </si>
-  <si>
-    <t>폴 고갱</t>
-  </si>
-  <si>
-    <t>화가 어머니의 초상, 이브</t>
-  </si>
-  <si>
-    <t>고갱이 있기까지는 위대한 화가의 어머니가 있었다.</t>
-  </si>
-  <si>
-    <t>윈슬로 호머</t>
-  </si>
-  <si>
-    <t>노스우즈 클럽</t>
-  </si>
-  <si>
-    <t>푸른 숲과 아름다운 동물, 총소리</t>
-  </si>
-  <si>
-    <t>목욕하는 소년들</t>
-  </si>
-  <si>
-    <t>자유로운 물속의 소년들. 물에 흩어질 것 같다.</t>
-  </si>
-  <si>
-    <t>요하네스 페르메이르</t>
-  </si>
-  <si>
-    <t>진주 귀고리를 한 소녀</t>
-  </si>
-  <si>
-    <t>진주 귀걸이는 정말로 소녀의 귀에 닿은 걸까?</t>
-  </si>
-  <si>
-    <t>피리부는 소년</t>
-  </si>
-  <si>
-    <t>발그레한 볼의 소년에게 제일 먼저 시선이 간다.</t>
-  </si>
-  <si>
-    <t>앙리 드 툴루즈 로트렉</t>
-  </si>
-  <si>
-    <t>물랑루즈의 영국인</t>
-  </si>
-  <si>
-    <t>이 작가는 포스터를 작품의 경지로 끌어올렸다.</t>
-  </si>
-  <si>
-    <t>패턴</t>
-  </si>
-  <si>
-    <t>1800년대의 직물의 패턴</t>
-  </si>
-  <si>
-    <t>아리스티드 브뤼앙</t>
-  </si>
-  <si>
-    <t>편견 없이 보고, 편견 없이 그린다.</t>
-  </si>
-  <si>
-    <t>파편</t>
-  </si>
-  <si>
-    <t>1800년대의 무늬</t>
-  </si>
-  <si>
-    <t>빈센트 반 고흐</t>
-  </si>
-  <si>
-    <t>해바라기</t>
-  </si>
-  <si>
-    <t>해바라기를 그릴 때의 고흐는 행복했다.</t>
-  </si>
-  <si>
-    <t>메리 카사트</t>
-  </si>
-  <si>
-    <t>모성애</t>
-  </si>
-  <si>
-    <t>섬세한 선과 아름다운 표현, 판화풍의 그림이다</t>
-  </si>
-  <si>
-    <t>귀에 붕대를 감은 자화상</t>
-  </si>
-  <si>
-    <t>붕대를 품은 판다, 아니 판다를 품은 자화상.</t>
-  </si>
-  <si>
-    <t>목욕하는 여인</t>
-  </si>
-  <si>
-    <t>여인의 아름다운 선에 리듬감이 느껴진다.</t>
-  </si>
-  <si>
-    <t>언제 결혼하니</t>
-  </si>
-  <si>
-    <t>언제 결혼하니, 그런 걸 왜 묻니</t>
-  </si>
-  <si>
-    <t>자화상</t>
-  </si>
-  <si>
-    <t>자화상과 배경의 물결에는 그의 불안이 담겨있다.</t>
-  </si>
-  <si>
-    <t>가셰 박사의 초상</t>
-  </si>
-  <si>
-    <t>작품을 완성한 달은, 고흐 생의 마지막 달이었다.</t>
-  </si>
-  <si>
-    <t>가쓰시카 호쿠사이</t>
-  </si>
-  <si>
-    <t>가나가와 해변의 높은 파도아래</t>
-  </si>
-  <si>
-    <t>세상에서 가장 유명한 파도 그림, 파도가 역동적이다.</t>
-  </si>
-  <si>
-    <t>꽃을 든 여인</t>
-  </si>
-  <si>
-    <t>선명하고 아름다운 색감의 이국적인 여인</t>
-  </si>
-  <si>
-    <t>뱃놀이</t>
-  </si>
-  <si>
-    <t>물이 잔잔한 날 친구와 여유를 즐기면 좋겠어</t>
-  </si>
-  <si>
-    <t>폴 세잔</t>
-  </si>
-  <si>
-    <t>사과 바구니가 있는 정물</t>
-  </si>
-  <si>
-    <t>각각 배치되어 있는 사과와 정물에서 고집이 느껴진다</t>
-  </si>
-  <si>
-    <t>마틴 존슨 헤데</t>
-  </si>
-  <si>
-    <t>블루 벨벳천과 목련</t>
-  </si>
-  <si>
-    <t>커다랗고 탐스러운 자연물을 그리는 건 즐겁다</t>
-  </si>
-  <si>
-    <t>민화 호작도, 까치와 호랑이</t>
-  </si>
-  <si>
-    <t>신년을 맞이하여 좋은 소식을 전한다.</t>
-  </si>
-  <si>
-    <t>지오반니 바티스타 살비</t>
-  </si>
-  <si>
-    <t>기도하는 성모마리아</t>
-  </si>
-  <si>
-    <t>가끔 기도하고 싶을 땐 그냥 손을 모아본다</t>
-  </si>
-  <si>
     <t>가츠카와 슌쇼</t>
   </si>
   <si>
@@ -357,188 +374,353 @@
     <t>평면의 판화, 색과 선에서 삶이 느껴진다.</t>
   </si>
   <si>
-    <t>artist</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>starCount</t>
-  </si>
-  <si>
-    <t>remainTime</t>
-  </si>
-  <si>
-    <t>skipLock</t>
-  </si>
-  <si>
-    <t>그림은 고요할지언정 터치에는 힘이 있다.</t>
-  </si>
-  <si>
     <t>031</t>
   </si>
   <si>
+    <t>바실리 칸딘스키</t>
+  </si>
+  <si>
+    <t>Houses at Murnau</t>
+  </si>
+  <si>
+    <t>독일 남부 바이에른 지방의 소도시 무르나우의 풍경이다.</t>
+  </si>
+  <si>
     <t>032</t>
   </si>
   <si>
+    <t>Painting with Troika</t>
+  </si>
+  <si>
+    <t>역동적인 말 썰매 모습이 시선을 강탈한다.</t>
+  </si>
+  <si>
     <t>033</t>
   </si>
   <si>
+    <t>Twelve-Point Star</t>
+  </si>
+  <si>
+    <t>Khar Gerd에서 발견된 작자 미상 모자이크 타일이다.</t>
+  </si>
+  <si>
     <t>034</t>
   </si>
   <si>
-    <t>바실리 칸딘스키</t>
-  </si>
-  <si>
-    <t>Painting with Troika</t>
-  </si>
-  <si>
-    <t>Twelve-Point Star</t>
-  </si>
-  <si>
     <t>신의 날</t>
   </si>
   <si>
-    <t>Houses at Murnau</t>
-  </si>
-  <si>
-    <t>독일 남부 바이에른 지방의 소도시 무르나우의 풍경이다.</t>
-  </si>
-  <si>
-    <t>Khar Gerd에서 발견된 작자 미상 모자이크 타일이다.</t>
-  </si>
-  <si>
-    <t>역동적인 말 썰매 모습이 시선을 강탈한다.</t>
-  </si>
-  <si>
     <t>종교 의식 장면에서 구성의 아름다움이 보인다.</t>
   </si>
   <si>
     <t>035</t>
   </si>
   <si>
+    <t>노란방</t>
+  </si>
+  <si>
+    <t>고흐는 이 그림을 자신의 주요 작품 중 하나라고 생각했다.</t>
+  </si>
+  <si>
     <t>036</t>
   </si>
   <si>
+    <t>아이리스 (첫 번째)</t>
+  </si>
+  <si>
+    <t>고흐는 아이리스를 그리면서 마음의 위안을 얻었다.</t>
+  </si>
+  <si>
     <t>037</t>
   </si>
   <si>
+    <t>아이리스 (두 번째)</t>
+  </si>
+  <si>
     <t>038</t>
   </si>
   <si>
+    <t>아이리스 (세 번째)</t>
+  </si>
+  <si>
     <t>039</t>
   </si>
   <si>
+    <t>아이리스 (네 번째 - 마지막)</t>
+  </si>
+  <si>
     <t>040</t>
   </si>
   <si>
-    <t>노란방</t>
-  </si>
-  <si>
     <t>생선이 있는 정물</t>
   </si>
   <si>
+    <t>그 옛날에도 생선에는 레몬이었나보다.</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
     <t>윌리엄 하넷</t>
   </si>
   <si>
+    <t>디저트 (첫 번째)</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>디저트 (두 번째)</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>디저트 (세 번째)</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>디저트 (네 번째 - 마지막)</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
     <t>이중섭</t>
   </si>
   <si>
     <t>소</t>
   </si>
   <si>
-    <t>자크루이 다비드</t>
-  </si>
-  <si>
-    <t>알프스를 넘고 있는 나폴레옹</t>
-  </si>
-  <si>
-    <t>고흐는 이 그림을 자신의 주요 작품 중 하나라고 생각했다.</t>
-  </si>
-  <si>
-    <t>고흐는 아이리스를 그리면서 마음의 위안을 얻었다.</t>
-  </si>
-  <si>
-    <t>아이리스 (첫 번째)</t>
-  </si>
-  <si>
-    <t>아이리스 (두 번째)</t>
-  </si>
-  <si>
-    <t>아이리스 (세 번째)</t>
-  </si>
-  <si>
-    <t>아이리스 (네 번째 - 마지막)</t>
-  </si>
-  <si>
-    <t>041</t>
-  </si>
-  <si>
-    <t>042</t>
-  </si>
-  <si>
-    <t>043</t>
-  </si>
-  <si>
-    <t>그 옛날에도 생선에는 레몬이었나보다.</t>
-  </si>
-  <si>
-    <t>디저트 (첫 번째)</t>
-  </si>
-  <si>
-    <t>디저트 (두 번째)</t>
-  </si>
-  <si>
-    <t>디저트 (세 번째)</t>
-  </si>
-  <si>
-    <t>디저트 (네 번째 - 마지막)</t>
-  </si>
-  <si>
-    <t>044</t>
-  </si>
-  <si>
-    <t>045</t>
-  </si>
-  <si>
     <t>046</t>
   </si>
   <si>
+    <t>雅克·路易·大卫</t>
+  </si>
+  <si>
+    <t>拿破仑翻越阿尔卑斯山</t>
+  </si>
+  <si>
     <t>047</t>
   </si>
   <si>
     <t>MrHup</t>
   </si>
   <si>
-    <t>인공 도시</t>
-  </si>
-  <si>
-    <t>인공지능 기술로 그린 그림. 이제 인간이 설 자리는 어디인가?</t>
+    <t>人工城市</t>
+  </si>
+  <si>
+    <t>利用人工智能技术绘制的图画。现在人类的生存之地在哪里？</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>小龙人</t>
+  </si>
+  <si>
+    <t>我上传的图画</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>我测试的图画</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>HorseAndMan</t>
+  </si>
+  <si>
+    <t>马和男人</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>Rectangle</t>
+  </si>
+  <si>
+    <t>矩形</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,18 +729,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -566,29 +922,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -637,7 +1279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -670,26 +1312,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -722,23 +1347,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -880,81 +1488,76 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEDB4F4-6C8D-4C33-B0CD-FA891662E51F}">
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.33333333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="26.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="46.8" customWidth="1"/>
+    <col min="6" max="6" width="8.66666666666667" customWidth="1"/>
+    <col min="7" max="7" width="10.1333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -966,21 +1569,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -992,21 +1595,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1018,21 +1621,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1044,21 +1647,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1070,21 +1673,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1096,21 +1699,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1122,21 +1725,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1148,21 +1751,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1174,21 +1777,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1200,21 +1803,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -1226,21 +1829,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -1252,18 +1855,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -1275,21 +1878,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -1301,18 +1904,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
+      <c r="B17" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -1324,21 +1927,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
+      <c r="B18" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -1350,21 +1953,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
+      <c r="B19" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -1376,21 +1979,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
+      <c r="B20" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -1402,21 +2005,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
+      <c r="B21" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -1428,21 +2031,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
+      <c r="B22" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -1454,21 +2057,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
+      <c r="B23" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
         <v>82</v>
-      </c>
-      <c r="E23" t="s">
-        <v>83</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -1480,15 +2083,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
+      <c r="B24" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
         <v>84</v>
@@ -1506,21 +2109,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
+      <c r="B25" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -1532,21 +2135,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
+      <c r="B26" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -1558,21 +2161,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>27</v>
+      <c r="B27" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -1584,21 +2187,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>28</v>
+      <c r="B28" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -1610,21 +2213,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>29</v>
+      <c r="B29" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -1636,18 +2239,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>30</v>
+      <c r="B30" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -1659,21 +2262,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>31</v>
+      <c r="B31" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -1685,21 +2288,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>32</v>
+      <c r="B32" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F32">
         <v>6</v>
@@ -1711,432 +2314,536 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="2">
+    <row r="33" s="1" customFormat="1" spans="1:8">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="F33" s="1">
+        <v>6</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:8">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:8">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="2">
+      <c r="E35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="1">
         <v>6</v>
       </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:8">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="2">
+      <c r="C36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="1">
         <v>6</v>
       </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:8">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="2">
         <v>6</v>
       </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="2">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:8">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="2">
         <v>6</v>
       </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="4">
-        <v>35</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:8">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F39" s="2">
+        <v>6</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:8">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="2">
+        <v>6</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:8">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="2">
+        <v>6</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:8">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="4">
+      <c r="C42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="2">
         <v>6</v>
       </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="4">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F38" s="4">
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:8">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="2">
         <v>6</v>
       </c>
-      <c r="G38" s="4">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="4">
-        <v>37</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:8">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="2">
         <v>6</v>
       </c>
-      <c r="G39" s="4">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="4">
-        <v>38</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F40" s="4">
-        <v>6</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="4">
-        <v>39</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" s="4">
-        <v>6</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="4">
-        <v>40</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F42" s="4">
-        <v>6</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="4">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" s="4">
-        <v>6</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="4">
-        <v>42</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F44" s="4">
-        <v>6</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0</v>
-      </c>
-      <c r="H44" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="4">
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:8">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="C45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" s="2">
+        <v>6</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="1:8">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" s="2">
+        <v>6</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:8">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F45" s="4">
+      <c r="C47" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="2">
         <v>6</v>
       </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="H45" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="4">
-        <v>44</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F46" s="4">
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:8">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="2">
         <v>6</v>
       </c>
-      <c r="G46" s="4">
-        <v>0</v>
-      </c>
-      <c r="H46" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="4">
-        <v>45</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F47" s="4">
-        <v>6</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="4">
-        <v>46</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48" s="4">
-        <v>6</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="4">
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F49" s="4">
+      <c r="E49" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" s="2">
         <v>3</v>
       </c>
-      <c r="G49" s="4">
-        <v>0</v>
-      </c>
-      <c r="H49" s="4" t="b">
-        <v>0</v>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50" s="2">
+        <v>3</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="2">
+        <v>3</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52" s="2">
+        <v>3</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" s="2">
+        <v>3</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B3 B4:B32" numberStoredAsText="1"/>
+    <ignoredError sqref="B3:B32" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>